--- a/Code/Results/Cases/Case_2_189/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_189/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.00966928866177</v>
+        <v>1.029984129814187</v>
       </c>
       <c r="D2">
-        <v>1.028364794566593</v>
+        <v>1.038358071646851</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>1.028950217164174</v>
+        <v>1.04533250382127</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04971894966324</v>
+        <v>1.037461549807567</v>
       </c>
       <c r="J2">
-        <v>1.031564589735801</v>
+        <v>1.035127883980919</v>
       </c>
       <c r="K2">
-        <v>1.039442615376771</v>
+        <v>1.041146332803674</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.040020441265896</v>
+        <v>1.048101040408517</v>
       </c>
       <c r="N2">
-        <v>1.014503843073565</v>
+        <v>1.015732391937389</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013186337064943</v>
+        <v>1.030722132024416</v>
       </c>
       <c r="D3">
-        <v>1.031011024784345</v>
+        <v>1.038935861409737</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.032257976379126</v>
+        <v>1.046085321330798</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050766074314845</v>
+        <v>1.037623489110281</v>
       </c>
       <c r="J3">
-        <v>1.033323871878063</v>
+        <v>1.035508229249379</v>
       </c>
       <c r="K3">
-        <v>1.041261912902886</v>
+        <v>1.041534733257742</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.042494099381036</v>
+        <v>1.048665429670427</v>
       </c>
       <c r="N3">
-        <v>1.015084058085107</v>
+        <v>1.015857797104481</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.015420830683363</v>
+        <v>1.031200124979407</v>
       </c>
       <c r="D4">
-        <v>1.032694475004482</v>
+        <v>1.039310090585289</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.034364558794572</v>
+        <v>1.046573293778808</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051421052739618</v>
+        <v>1.037727109531837</v>
       </c>
       <c r="J4">
-        <v>1.034438129879096</v>
+        <v>1.035754096173783</v>
       </c>
       <c r="K4">
-        <v>1.042413691970295</v>
+        <v>1.041785713123771</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.044065197135516</v>
+        <v>1.049030810517632</v>
       </c>
       <c r="N4">
-        <v>1.015451565870958</v>
+        <v>1.015938858267929</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.016350602744487</v>
+        <v>1.031401180492373</v>
       </c>
       <c r="D5">
-        <v>1.033395455490394</v>
+        <v>1.039467500893316</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.03524229682763</v>
+        <v>1.046778638495285</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051691084043423</v>
+        <v>1.03777039173206</v>
       </c>
       <c r="J5">
-        <v>1.034900915934099</v>
+        <v>1.035857399406796</v>
       </c>
       <c r="K5">
-        <v>1.042891937942033</v>
+        <v>1.041891141953991</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.044718782965251</v>
+        <v>1.049184458690633</v>
       </c>
       <c r="N5">
-        <v>1.015604208203056</v>
+        <v>1.01597291573727</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.016506159776263</v>
+        <v>1.031434944832062</v>
       </c>
       <c r="D6">
-        <v>1.033512762433596</v>
+        <v>1.039493935666745</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.03538921748635</v>
+        <v>1.046813128505388</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051736113809848</v>
+        <v>1.037777642569006</v>
       </c>
       <c r="J6">
-        <v>1.034978292092822</v>
+        <v>1.035874740963206</v>
       </c>
       <c r="K6">
-        <v>1.042971891490155</v>
+        <v>1.041908839003773</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.044828122731743</v>
+        <v>1.049210259309082</v>
       </c>
       <c r="N6">
-        <v>1.015629729719609</v>
+        <v>1.015978632912673</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.015433291747587</v>
+        <v>1.031202811073923</v>
       </c>
       <c r="D7">
-        <v>1.032703867820701</v>
+        <v>1.03931219358051</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.03437631781686</v>
+        <v>1.046576036817543</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051424681711648</v>
+        <v>1.037727688971348</v>
       </c>
       <c r="J7">
-        <v>1.034444335678974</v>
+        <v>1.035755476750989</v>
       </c>
       <c r="K7">
-        <v>1.042420105579325</v>
+        <v>1.041787122197296</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.044073957293903</v>
+        <v>1.049032863409027</v>
       </c>
       <c r="N7">
-        <v>1.015453612732975</v>
+        <v>1.015939313427179</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.010866604272519</v>
+        <v>1.030233445498777</v>
       </c>
       <c r="D8">
-        <v>1.029265170947256</v>
+        <v>1.038553262569797</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>1.030075210627262</v>
+        <v>1.045586744875026</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050077557921168</v>
+        <v>1.037516518667396</v>
       </c>
       <c r="J8">
-        <v>1.032164217629328</v>
+        <v>1.035256472743432</v>
       </c>
       <c r="K8">
-        <v>1.040062797816735</v>
+        <v>1.041277664348729</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.040862640012907</v>
+        <v>1.048291739371719</v>
       </c>
       <c r="N8">
-        <v>1.014701596391763</v>
+        <v>1.015774790400787</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.002490665075524</v>
+        <v>1.028528878802084</v>
       </c>
       <c r="D9">
-        <v>1.022977297323717</v>
+        <v>1.037218777033428</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.022227586319488</v>
+        <v>1.04385008678885</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047526828957499</v>
+        <v>1.03713552535637</v>
       </c>
       <c r="J9">
-        <v>1.027955777072512</v>
+        <v>1.034375369192627</v>
       </c>
       <c r="K9">
-        <v>1.03570826779293</v>
+        <v>1.040377384122891</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.034970043897714</v>
+        <v>1.046987267441303</v>
       </c>
       <c r="N9">
-        <v>1.013313804903035</v>
+        <v>1.015484253385698</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9966668842454165</v>
+        <v>1.027395022945905</v>
       </c>
       <c r="D10">
-        <v>1.018620678822051</v>
+        <v>1.036331151500093</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.016800713642636</v>
+        <v>1.042696883783981</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045701530267414</v>
+        <v>1.03687560957245</v>
       </c>
       <c r="J10">
-        <v>1.025013372250851</v>
+        <v>1.033786838327378</v>
       </c>
       <c r="K10">
-        <v>1.032661677686533</v>
+        <v>1.039775567326298</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.030873110066213</v>
+        <v>1.046118724588313</v>
       </c>
       <c r="N10">
-        <v>1.012343692502774</v>
+        <v>1.015290167486648</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9940837974333481</v>
+        <v>1.02690467339374</v>
       </c>
       <c r="D11">
-        <v>1.016692523394227</v>
+        <v>1.035947306410004</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.014401090851787</v>
+        <v>1.042198645634249</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04488015668507</v>
+        <v>1.036761670150622</v>
       </c>
       <c r="J11">
-        <v>1.023704785452364</v>
+        <v>1.033531746821613</v>
       </c>
       <c r="K11">
-        <v>1.031306362572506</v>
+        <v>1.039514605320246</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.029056439606661</v>
+        <v>1.045742920870216</v>
       </c>
       <c r="N11">
-        <v>1.011912304041341</v>
+        <v>1.015206038190921</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9931147045454182</v>
+        <v>1.026722630482689</v>
       </c>
       <c r="D12">
-        <v>1.015969817043232</v>
+        <v>1.035804806775892</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.013501978723666</v>
+        <v>1.042013746279111</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044570276854935</v>
+        <v>1.036719139405039</v>
       </c>
       <c r="J12">
-        <v>1.023213348255583</v>
+        <v>1.033436957686439</v>
       </c>
       <c r="K12">
-        <v>1.030797325424777</v>
+        <v>1.039417618064291</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.028374994551561</v>
+        <v>1.04560337471268</v>
       </c>
       <c r="N12">
-        <v>1.011750305725683</v>
+        <v>1.015174775934073</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9933230202620019</v>
+        <v>1.026761674986007</v>
       </c>
       <c r="D13">
-        <v>1.016125138251746</v>
+        <v>1.035835369890845</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.013695198803348</v>
+        <v>1.042053400158237</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044636965777603</v>
+        <v>1.036728271818378</v>
       </c>
       <c r="J13">
-        <v>1.023319009289937</v>
+        <v>1.033457291921251</v>
       </c>
       <c r="K13">
-        <v>1.03090677270698</v>
+        <v>1.039438424596089</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.028521471907053</v>
+        <v>1.045633305812993</v>
       </c>
       <c r="N13">
-        <v>1.011785135626358</v>
+        <v>1.015181482370338</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9940038905497779</v>
+        <v>1.026889623725752</v>
       </c>
       <c r="D14">
-        <v>1.016632918346499</v>
+        <v>1.035935525752746</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.014326930636591</v>
+        <v>1.042183358345927</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044854640293247</v>
+        <v>1.036758158795581</v>
       </c>
       <c r="J14">
-        <v>1.023664273751538</v>
+        <v>1.033523912264979</v>
       </c>
       <c r="K14">
-        <v>1.031264401012127</v>
+        <v>1.039506589423739</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.029000248303958</v>
+        <v>1.045731385031486</v>
       </c>
       <c r="N14">
-        <v>1.01189894950254</v>
+        <v>1.01520345430336</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9944221101357444</v>
+        <v>1.026968469780773</v>
       </c>
       <c r="D15">
-        <v>1.016944909338663</v>
+        <v>1.035997245417395</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.014715120259933</v>
+        <v>1.042263452266969</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044988118767612</v>
+        <v>1.036776545537472</v>
       </c>
       <c r="J15">
-        <v>1.023876285308741</v>
+        <v>1.033564954422014</v>
       </c>
       <c r="K15">
-        <v>1.031483998138175</v>
+        <v>1.039548580865382</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.029294349237103</v>
+        <v>1.045791820770762</v>
       </c>
       <c r="N15">
-        <v>1.011968838724261</v>
+        <v>1.015216990241892</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9968369887892392</v>
+        <v>1.027427579009337</v>
       </c>
       <c r="D16">
-        <v>1.01874774539833</v>
+        <v>1.036356636795915</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.016958894340017</v>
+        <v>1.042729973711792</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045755378190497</v>
+        <v>1.036883142058774</v>
       </c>
       <c r="J16">
-        <v>1.025099476225408</v>
+        <v>1.033803762677881</v>
       </c>
       <c r="K16">
-        <v>1.03275084880518</v>
+        <v>1.039792878814449</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.030992757111756</v>
+        <v>1.046143671523073</v>
       </c>
       <c r="N16">
-        <v>1.01237207869739</v>
+        <v>1.015295749038335</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9983350759035284</v>
+        <v>1.02771573281684</v>
       </c>
       <c r="D17">
-        <v>1.019867286170251</v>
+        <v>1.036582209499516</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.018352820342037</v>
+        <v>1.043022908089439</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046228271022901</v>
+        <v>1.036949634607359</v>
       </c>
       <c r="J17">
-        <v>1.02585738538123</v>
+        <v>1.03395349379061</v>
       </c>
       <c r="K17">
-        <v>1.033535711857774</v>
+        <v>1.039946022060682</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.032046532431379</v>
+        <v>1.046364454760343</v>
       </c>
       <c r="N17">
-        <v>1.012621947390989</v>
+        <v>1.015345128891346</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9992029935610949</v>
+        <v>1.027883867506801</v>
       </c>
       <c r="D18">
-        <v>1.020516287508875</v>
+        <v>1.036713830602526</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.019161095360963</v>
+        <v>1.043193878352392</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046501118581384</v>
+        <v>1.036988284009076</v>
       </c>
       <c r="J18">
-        <v>1.026296144690152</v>
+        <v>1.034040804842288</v>
       </c>
       <c r="K18">
-        <v>1.033990037070679</v>
+        <v>1.040035311997428</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.032657081604534</v>
+        <v>1.046493260882554</v>
       </c>
       <c r="N18">
-        <v>1.012766603266632</v>
+        <v>1.015373922723882</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9994979436503649</v>
+        <v>1.02794120711474</v>
       </c>
       <c r="D19">
-        <v>1.020736907386932</v>
+        <v>1.03675871813897</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.019435894923658</v>
+        <v>1.043252192805611</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046593650338868</v>
+        <v>1.037001439602691</v>
       </c>
       <c r="J19">
-        <v>1.026445193250093</v>
+        <v>1.034070571445998</v>
       </c>
       <c r="K19">
-        <v>1.034144366776836</v>
+        <v>1.040065751420409</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.032864574776171</v>
+        <v>1.046537184964155</v>
       </c>
       <c r="N19">
-        <v>1.012815744361459</v>
+        <v>1.015383739204103</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.99817495752542</v>
+        <v>1.027684810477028</v>
       </c>
       <c r="D20">
-        <v>1.019747586265668</v>
+        <v>1.036558002666475</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.018203761725438</v>
+        <v>1.042991467960943</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046177843518784</v>
+        <v>1.036942514499696</v>
       </c>
       <c r="J20">
-        <v>1.025776413229861</v>
+        <v>1.033937431591358</v>
       </c>
       <c r="K20">
-        <v>1.033451863930788</v>
+        <v>1.039929594945448</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.031933898117503</v>
+        <v>1.046340764002873</v>
       </c>
       <c r="N20">
-        <v>1.012595251838397</v>
+        <v>1.015339831786738</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9938036601052005</v>
+        <v>1.026851943379676</v>
       </c>
       <c r="D21">
-        <v>1.016483571260833</v>
+        <v>1.035906030191608</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.01414111885011</v>
+        <v>1.042145084229839</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044790673718535</v>
+        <v>1.036749363576167</v>
       </c>
       <c r="J21">
-        <v>1.02356275174762</v>
+        <v>1.03350429523917</v>
       </c>
       <c r="K21">
-        <v>1.031159244873517</v>
+        <v>1.039486518069624</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.028859446244495</v>
+        <v>1.045702501914656</v>
       </c>
       <c r="N21">
-        <v>1.011865483277186</v>
+        <v>1.015196984468924</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.990999381275683</v>
+        <v>1.02632883592198</v>
       </c>
       <c r="D22">
-        <v>1.014393601327186</v>
+        <v>1.035496558735204</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.011541564307623</v>
+        <v>1.041613905060829</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043890751967796</v>
+        <v>1.036626715635214</v>
       </c>
       <c r="J22">
-        <v>1.022139767544442</v>
+        <v>1.033231753014228</v>
       </c>
       <c r="K22">
-        <v>1.029685211067271</v>
+        <v>1.039207624327348</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.02688779625666</v>
+        <v>1.045301457130216</v>
       </c>
       <c r="N22">
-        <v>1.011396425454652</v>
+        <v>1.01510709633377</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9924914185851041</v>
+        <v>1.026606092372598</v>
       </c>
       <c r="D23">
-        <v>1.01550519498891</v>
+        <v>1.035713584023245</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.012924030797727</v>
+        <v>1.041895399933451</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044370492314381</v>
+        <v>1.036691847675253</v>
       </c>
       <c r="J23">
-        <v>1.022897137360514</v>
+        <v>1.033376252475043</v>
       </c>
       <c r="K23">
-        <v>1.030469776570077</v>
+        <v>1.039355500432533</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.027936750121795</v>
+        <v>1.045514033683509</v>
       </c>
       <c r="N23">
-        <v>1.011646071917047</v>
+        <v>1.015154754631853</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9982473263051405</v>
+        <v>1.02769878276792</v>
       </c>
       <c r="D24">
-        <v>1.019801685868977</v>
+        <v>1.036568940543195</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.018271129643032</v>
+        <v>1.043005674072621</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046200638746032</v>
+        <v>1.0369457321858</v>
       </c>
       <c r="J24">
-        <v>1.025813011294767</v>
+        <v>1.033944689483911</v>
       </c>
       <c r="K24">
-        <v>1.033489761916539</v>
+        <v>1.039937017762925</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.031984805369238</v>
+        <v>1.046351468753249</v>
       </c>
       <c r="N24">
-        <v>1.012607317768436</v>
+        <v>1.015342225346932</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.004696884136812</v>
+        <v>1.02896911408985</v>
       </c>
       <c r="D25">
-        <v>1.024631045393056</v>
+        <v>1.037563423996451</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.024289663918815</v>
+        <v>1.044298258789675</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048207803723937</v>
+        <v>1.037235068625136</v>
       </c>
       <c r="J25">
-        <v>1.02906720674666</v>
+        <v>1.034603360202214</v>
       </c>
       <c r="K25">
-        <v>1.036858660878932</v>
+        <v>1.040610421632954</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.036522262631897</v>
+        <v>1.047324317803258</v>
       </c>
       <c r="N25">
-        <v>1.013680285070937</v>
+        <v>1.015559435656775</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_189/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_189/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029984129814187</v>
+        <v>1.009669288661771</v>
       </c>
       <c r="D2">
-        <v>1.038358071646851</v>
+        <v>1.028364794566593</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.04533250382127</v>
+        <v>1.028950217164174</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037461549807567</v>
+        <v>1.049718949663241</v>
       </c>
       <c r="J2">
-        <v>1.035127883980919</v>
+        <v>1.031564589735801</v>
       </c>
       <c r="K2">
-        <v>1.041146332803674</v>
+        <v>1.039442615376772</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.048101040408517</v>
+        <v>1.040020441265896</v>
       </c>
       <c r="N2">
-        <v>1.015732391937389</v>
+        <v>1.014503843073565</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030722132024416</v>
+        <v>1.013186337064943</v>
       </c>
       <c r="D3">
-        <v>1.038935861409737</v>
+        <v>1.031011024784345</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.046085321330798</v>
+        <v>1.032257976379126</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037623489110281</v>
+        <v>1.050766074314846</v>
       </c>
       <c r="J3">
-        <v>1.035508229249379</v>
+        <v>1.033323871878064</v>
       </c>
       <c r="K3">
-        <v>1.041534733257742</v>
+        <v>1.041261912902886</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.048665429670427</v>
+        <v>1.042494099381036</v>
       </c>
       <c r="N3">
-        <v>1.015857797104481</v>
+        <v>1.015084058085107</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031200124979407</v>
+        <v>1.015420830683363</v>
       </c>
       <c r="D4">
-        <v>1.039310090585289</v>
+        <v>1.032694475004481</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.046573293778808</v>
+        <v>1.034364558794571</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037727109531837</v>
+        <v>1.051421052739618</v>
       </c>
       <c r="J4">
-        <v>1.035754096173783</v>
+        <v>1.034438129879095</v>
       </c>
       <c r="K4">
-        <v>1.041785713123771</v>
+        <v>1.042413691970294</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.049030810517632</v>
+        <v>1.044065197135515</v>
       </c>
       <c r="N4">
-        <v>1.015938858267929</v>
+        <v>1.015451565870958</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031401180492373</v>
+        <v>1.016350602744486</v>
       </c>
       <c r="D5">
-        <v>1.039467500893316</v>
+        <v>1.033395455490393</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.046778638495285</v>
+        <v>1.035242296827629</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03777039173206</v>
+        <v>1.051691084043422</v>
       </c>
       <c r="J5">
-        <v>1.035857399406796</v>
+        <v>1.034900915934098</v>
       </c>
       <c r="K5">
-        <v>1.041891141953991</v>
+        <v>1.042891937942033</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.049184458690633</v>
+        <v>1.04471878296525</v>
       </c>
       <c r="N5">
-        <v>1.01597291573727</v>
+        <v>1.015604208203056</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031434944832062</v>
+        <v>1.016506159776263</v>
       </c>
       <c r="D6">
-        <v>1.039493935666745</v>
+        <v>1.033512762433596</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.046813128505388</v>
+        <v>1.03538921748635</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037777642569006</v>
+        <v>1.051736113809848</v>
       </c>
       <c r="J6">
-        <v>1.035874740963206</v>
+        <v>1.034978292092821</v>
       </c>
       <c r="K6">
-        <v>1.041908839003773</v>
+        <v>1.042971891490155</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.049210259309082</v>
+        <v>1.044828122731743</v>
       </c>
       <c r="N6">
-        <v>1.015978632912673</v>
+        <v>1.015629729719609</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031202811073923</v>
+        <v>1.015433291747587</v>
       </c>
       <c r="D7">
-        <v>1.03931219358051</v>
+        <v>1.0327038678207</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.046576036817543</v>
+        <v>1.03437631781686</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037727688971348</v>
+        <v>1.051424681711648</v>
       </c>
       <c r="J7">
-        <v>1.035755476750989</v>
+        <v>1.034444335678974</v>
       </c>
       <c r="K7">
-        <v>1.041787122197296</v>
+        <v>1.042420105579325</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.049032863409027</v>
+        <v>1.044073957293903</v>
       </c>
       <c r="N7">
-        <v>1.015939313427179</v>
+        <v>1.015453612732975</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030233445498777</v>
+        <v>1.010866604272519</v>
       </c>
       <c r="D8">
-        <v>1.038553262569797</v>
+        <v>1.029265170947257</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.045586744875026</v>
+        <v>1.030075210627263</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037516518667396</v>
+        <v>1.050077557921169</v>
       </c>
       <c r="J8">
-        <v>1.035256472743432</v>
+        <v>1.032164217629328</v>
       </c>
       <c r="K8">
-        <v>1.041277664348729</v>
+        <v>1.040062797816736</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.048291739371719</v>
+        <v>1.040862640012908</v>
       </c>
       <c r="N8">
-        <v>1.015774790400787</v>
+        <v>1.014701596391763</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028528878802084</v>
+        <v>1.002490665075524</v>
       </c>
       <c r="D9">
-        <v>1.037218777033428</v>
+        <v>1.022977297323717</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.04385008678885</v>
+        <v>1.022227586319488</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03713552535637</v>
+        <v>1.047526828957499</v>
       </c>
       <c r="J9">
-        <v>1.034375369192627</v>
+        <v>1.027955777072512</v>
       </c>
       <c r="K9">
-        <v>1.040377384122891</v>
+        <v>1.03570826779293</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.046987267441303</v>
+        <v>1.034970043897714</v>
       </c>
       <c r="N9">
-        <v>1.015484253385698</v>
+        <v>1.013313804903036</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027395022945905</v>
+        <v>0.9966668842454166</v>
       </c>
       <c r="D10">
-        <v>1.036331151500093</v>
+        <v>1.018620678822052</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.042696883783981</v>
+        <v>1.016800713642636</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03687560957245</v>
+        <v>1.045701530267414</v>
       </c>
       <c r="J10">
-        <v>1.033786838327378</v>
+        <v>1.025013372250851</v>
       </c>
       <c r="K10">
-        <v>1.039775567326298</v>
+        <v>1.032661677686534</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.046118724588313</v>
+        <v>1.030873110066213</v>
       </c>
       <c r="N10">
-        <v>1.015290167486648</v>
+        <v>1.012343692502774</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02690467339374</v>
+        <v>0.9940837974333478</v>
       </c>
       <c r="D11">
-        <v>1.035947306410004</v>
+        <v>1.016692523394227</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.042198645634249</v>
+        <v>1.014401090851787</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036761670150622</v>
+        <v>1.044880156685069</v>
       </c>
       <c r="J11">
-        <v>1.033531746821613</v>
+        <v>1.023704785452364</v>
       </c>
       <c r="K11">
-        <v>1.039514605320246</v>
+        <v>1.031306362572505</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.045742920870216</v>
+        <v>1.02905643960666</v>
       </c>
       <c r="N11">
-        <v>1.015206038190921</v>
+        <v>1.011912304041341</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026722630482689</v>
+        <v>0.9931147045454186</v>
       </c>
       <c r="D12">
-        <v>1.035804806775892</v>
+        <v>1.015969817043232</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.042013746279111</v>
+        <v>1.013501978723666</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036719139405039</v>
+        <v>1.044570276854935</v>
       </c>
       <c r="J12">
-        <v>1.033436957686439</v>
+        <v>1.023213348255584</v>
       </c>
       <c r="K12">
-        <v>1.039417618064291</v>
+        <v>1.030797325424777</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.04560337471268</v>
+        <v>1.028374994551561</v>
       </c>
       <c r="N12">
-        <v>1.015174775934073</v>
+        <v>1.011750305725683</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026761674986007</v>
+        <v>0.9933230202620015</v>
       </c>
       <c r="D13">
-        <v>1.035835369890845</v>
+        <v>1.016125138251746</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.042053400158237</v>
+        <v>1.013695198803348</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036728271818378</v>
+        <v>1.044636965777602</v>
       </c>
       <c r="J13">
-        <v>1.033457291921251</v>
+        <v>1.023319009289937</v>
       </c>
       <c r="K13">
-        <v>1.039438424596089</v>
+        <v>1.030906772706979</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.045633305812993</v>
+        <v>1.028521471907053</v>
       </c>
       <c r="N13">
-        <v>1.015181482370338</v>
+        <v>1.011785135626358</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026889623725752</v>
+        <v>0.9940038905497786</v>
       </c>
       <c r="D14">
-        <v>1.035935525752746</v>
+        <v>1.016632918346499</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.042183358345927</v>
+        <v>1.014326930636592</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036758158795581</v>
+        <v>1.044854640293247</v>
       </c>
       <c r="J14">
-        <v>1.033523912264979</v>
+        <v>1.023664273751539</v>
       </c>
       <c r="K14">
-        <v>1.039506589423739</v>
+        <v>1.031264401012128</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.045731385031486</v>
+        <v>1.029000248303959</v>
       </c>
       <c r="N14">
-        <v>1.01520345430336</v>
+        <v>1.01189894950254</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026968469780773</v>
+        <v>0.9944221101357446</v>
       </c>
       <c r="D15">
-        <v>1.035997245417395</v>
+        <v>1.016944909338663</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.042263452266969</v>
+        <v>1.014715120259933</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036776545537472</v>
+        <v>1.044988118767612</v>
       </c>
       <c r="J15">
-        <v>1.033564954422014</v>
+        <v>1.023876285308741</v>
       </c>
       <c r="K15">
-        <v>1.039548580865382</v>
+        <v>1.031483998138175</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.045791820770762</v>
+        <v>1.029294349237103</v>
       </c>
       <c r="N15">
-        <v>1.015216990241892</v>
+        <v>1.011968838724261</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027427579009337</v>
+        <v>0.9968369887892383</v>
       </c>
       <c r="D16">
-        <v>1.036356636795915</v>
+        <v>1.01874774539833</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.042729973711792</v>
+        <v>1.016958894340016</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036883142058774</v>
+        <v>1.045755378190496</v>
       </c>
       <c r="J16">
-        <v>1.033803762677881</v>
+        <v>1.025099476225408</v>
       </c>
       <c r="K16">
-        <v>1.039792878814449</v>
+        <v>1.03275084880518</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.046143671523073</v>
+        <v>1.030992757111756</v>
       </c>
       <c r="N16">
-        <v>1.015295749038335</v>
+        <v>1.01237207869739</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>1.02771573281684</v>
+        <v>0.9983350759035279</v>
       </c>
       <c r="D17">
-        <v>1.036582209499516</v>
+        <v>1.01986728617025</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.043022908089439</v>
+        <v>1.018352820342037</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036949634607359</v>
+        <v>1.046228271022901</v>
       </c>
       <c r="J17">
-        <v>1.03395349379061</v>
+        <v>1.02585738538123</v>
       </c>
       <c r="K17">
-        <v>1.039946022060682</v>
+        <v>1.033535711857773</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.046364454760343</v>
+        <v>1.032046532431379</v>
       </c>
       <c r="N17">
-        <v>1.015345128891346</v>
+        <v>1.012621947390989</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027883867506801</v>
+        <v>0.9992029935610945</v>
       </c>
       <c r="D18">
-        <v>1.036713830602526</v>
+        <v>1.020516287508875</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.043193878352392</v>
+        <v>1.019161095360963</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036988284009076</v>
+        <v>1.046501118581384</v>
       </c>
       <c r="J18">
-        <v>1.034040804842288</v>
+        <v>1.026296144690152</v>
       </c>
       <c r="K18">
-        <v>1.040035311997428</v>
+        <v>1.033990037070679</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.046493260882554</v>
+        <v>1.032657081604533</v>
       </c>
       <c r="N18">
-        <v>1.015373922723882</v>
+        <v>1.012766603266632</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02794120711474</v>
+        <v>0.9994979436503639</v>
       </c>
       <c r="D19">
-        <v>1.03675871813897</v>
+        <v>1.020736907386931</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.043252192805611</v>
+        <v>1.019435894923657</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037001439602691</v>
+        <v>1.046593650338867</v>
       </c>
       <c r="J19">
-        <v>1.034070571445998</v>
+        <v>1.026445193250092</v>
       </c>
       <c r="K19">
-        <v>1.040065751420409</v>
+        <v>1.034144366776835</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.046537184964155</v>
+        <v>1.03286457477617</v>
       </c>
       <c r="N19">
-        <v>1.015383739204103</v>
+        <v>1.012815744361458</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027684810477028</v>
+        <v>0.998174957525419</v>
       </c>
       <c r="D20">
-        <v>1.036558002666475</v>
+        <v>1.019747586265666</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.042991467960943</v>
+        <v>1.018203761725437</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036942514499696</v>
+        <v>1.046177843518783</v>
       </c>
       <c r="J20">
-        <v>1.033937431591358</v>
+        <v>1.02577641322986</v>
       </c>
       <c r="K20">
-        <v>1.039929594945448</v>
+        <v>1.033451863930787</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.046340764002873</v>
+        <v>1.031933898117502</v>
       </c>
       <c r="N20">
-        <v>1.015339831786738</v>
+        <v>1.012595251838397</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026851943379676</v>
+        <v>0.9938036601051996</v>
       </c>
       <c r="D21">
-        <v>1.035906030191608</v>
+        <v>1.016483571260832</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.042145084229839</v>
+        <v>1.014141118850109</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036749363576167</v>
+        <v>1.044790673718535</v>
       </c>
       <c r="J21">
-        <v>1.03350429523917</v>
+        <v>1.023562751747619</v>
       </c>
       <c r="K21">
-        <v>1.039486518069624</v>
+        <v>1.031159244873516</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.045702501914656</v>
+        <v>1.028859446244494</v>
       </c>
       <c r="N21">
-        <v>1.015196984468924</v>
+        <v>1.011865483277185</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02632883592198</v>
+        <v>0.9909993812756825</v>
       </c>
       <c r="D22">
-        <v>1.035496558735204</v>
+        <v>1.014393601327186</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.041613905060829</v>
+        <v>1.011541564307623</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036626715635214</v>
+        <v>1.043890751967796</v>
       </c>
       <c r="J22">
-        <v>1.033231753014228</v>
+        <v>1.022139767544442</v>
       </c>
       <c r="K22">
-        <v>1.039207624327348</v>
+        <v>1.029685211067271</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.045301457130216</v>
+        <v>1.02688779625666</v>
       </c>
       <c r="N22">
-        <v>1.01510709633377</v>
+        <v>1.011396425454652</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026606092372598</v>
+        <v>0.9924914185851041</v>
       </c>
       <c r="D23">
-        <v>1.035713584023245</v>
+        <v>1.01550519498891</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.041895399933451</v>
+        <v>1.012924030797728</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036691847675253</v>
+        <v>1.044370492314381</v>
       </c>
       <c r="J23">
-        <v>1.033376252475043</v>
+        <v>1.022897137360514</v>
       </c>
       <c r="K23">
-        <v>1.039355500432533</v>
+        <v>1.030469776570077</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.045514033683509</v>
+        <v>1.027936750121796</v>
       </c>
       <c r="N23">
-        <v>1.015154754631853</v>
+        <v>1.011646071917047</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02769878276792</v>
+        <v>0.9982473263051389</v>
       </c>
       <c r="D24">
-        <v>1.036568940543195</v>
+        <v>1.019801685868976</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.043005674072621</v>
+        <v>1.01827112964303</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0369457321858</v>
+        <v>1.046200638746032</v>
       </c>
       <c r="J24">
-        <v>1.033944689483911</v>
+        <v>1.025813011294766</v>
       </c>
       <c r="K24">
-        <v>1.039937017762925</v>
+        <v>1.033489761916538</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.046351468753249</v>
+        <v>1.031984805369236</v>
       </c>
       <c r="N24">
-        <v>1.015342225346932</v>
+        <v>1.012607317768436</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02896911408985</v>
+        <v>1.004696884136812</v>
       </c>
       <c r="D25">
-        <v>1.037563423996451</v>
+        <v>1.024631045393056</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.044298258789675</v>
+        <v>1.024289663918815</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037235068625136</v>
+        <v>1.048207803723937</v>
       </c>
       <c r="J25">
-        <v>1.034603360202214</v>
+        <v>1.02906720674666</v>
       </c>
       <c r="K25">
-        <v>1.040610421632954</v>
+        <v>1.036858660878933</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.047324317803258</v>
+        <v>1.036522262631897</v>
       </c>
       <c r="N25">
-        <v>1.015559435656775</v>
+        <v>1.013680285070937</v>
       </c>
     </row>
   </sheetData>
